--- a/KTTM/wwwroot/Doc/Upload141.xlsx
+++ b/KTTM/wwwroot/Doc/Upload141.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NetCore\STS\KTTM\KTTM\wwwroot\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAE2761-ED76-49EE-A452-728A560D89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDC6DBF-123F-4FE3-BA12-882ED28B548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{040D52C1-5C92-4ABB-9F77-A9CFC2F47B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,103 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>MaKhNo</t>
-  </si>
-  <si>
-    <t>DienGiai</t>
-  </si>
-  <si>
-    <t>SoTien</t>
-  </si>
-  <si>
-    <t>TKNo</t>
-  </si>
-  <si>
-    <t>TKCo</t>
-  </si>
-  <si>
-    <t>MaKhCo</t>
-  </si>
-  <si>
-    <t>Sgtcode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>HTTC</t>
   </si>
   <si>
-    <t>NgayCTGoc</t>
-  </si>
-  <si>
-    <t>LoaiHDGoc</t>
-  </si>
-  <si>
-    <t>SoCTGoc</t>
-  </si>
-  <si>
-    <t>KyHieuHD</t>
-  </si>
-  <si>
     <t>VAT</t>
   </si>
   <si>
-    <t>DSKhongVAT</t>
-  </si>
-  <si>
-    <t>BoPhan</t>
-  </si>
-  <si>
-    <t>NoQuay</t>
-  </si>
-  <si>
-    <t>CoQuay</t>
-  </si>
-  <si>
-    <t>MatHang</t>
-  </si>
-  <si>
-    <t>DienGiaiP</t>
-  </si>
-  <si>
-    <t>LinkHDDT</t>
-  </si>
-  <si>
-    <t>CHI PHI DOAN - HUONG DAN</t>
-  </si>
-  <si>
-    <t>NB821</t>
-  </si>
-  <si>
-    <t>STB084-2021-00004</t>
-  </si>
-  <si>
-    <t>CHD</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>KHD</t>
-  </si>
-  <si>
-    <t>IB</t>
-  </si>
-  <si>
-    <t>CPTQ TAY BAC STB084-004 28-01/02</t>
+    <t>MÃ KH NỢ</t>
+  </si>
+  <si>
+    <t>DIỄN GIẢI CHÍNH</t>
+  </si>
+  <si>
+    <t>LOẠI TIỀN</t>
+  </si>
+  <si>
+    <t>SỐ TIỀN</t>
+  </si>
+  <si>
+    <t>SỐ TIỀN NT</t>
+  </si>
+  <si>
+    <t>TỶ GIÁ</t>
+  </si>
+  <si>
+    <t>TK NỢ</t>
+  </si>
+  <si>
+    <t>TK CÓ</t>
+  </si>
+  <si>
+    <t>MÃ KH CÓ</t>
+  </si>
+  <si>
+    <t>SGT CODE</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>NGÀY CT GỐC</t>
+  </si>
+  <si>
+    <t>LOẠI HD GỐC</t>
+  </si>
+  <si>
+    <t>SỐ CT GỐC</t>
+  </si>
+  <si>
+    <t>DS KHÔNG VAT</t>
+  </si>
+  <si>
+    <t>BỘ PHẬN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NỢ QUẦY</t>
+  </si>
+  <si>
+    <t>CÓ QUẦY</t>
+  </si>
+  <si>
+    <t>SỐ XE</t>
+  </si>
+  <si>
+    <t>KÝ HIỆU</t>
+  </si>
+  <si>
+    <t>MẪU SỐ</t>
+  </si>
+  <si>
+    <t>MẶT HÀNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIỄN GIẢI PHỤ</t>
+  </si>
+  <si>
+    <t>LINK HDDT</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>TK TRUY CẬP</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>SỐ VÉ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,10 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,68 +496,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCD781F-C2B0-4C3D-B79D-986330824807}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="16" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="16.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="12.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="2" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="2"/>
+    <col min="25" max="25" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="16.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -557,58 +594,39 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
-        <v>2740000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6277337020</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>1411</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>24</v>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>